--- a/data/trans_dic/P28B_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28B_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha alimentado peor respecto al último mes</t>
+          <t>Población que se ha alimentado peor respecto al último mes (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>4,48%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 23,9</t>
+          <t>3,46; 23,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 7,9</t>
+          <t>0,0; 15,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,68</t>
+          <t>0,0; 10,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 26,44</t>
+          <t>11,89; 36,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 13,71</t>
+          <t>1,58; 15,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 14,54</t>
+          <t>3,6; 19,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 15,51</t>
+          <t>2,76; 22,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,65; 22,04</t>
+          <t>10,29; 27,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,69</t>
+          <t>1,99; 11,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 9,73</t>
+          <t>2,33; 11,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 10,15</t>
+          <t>1,37; 13,71</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,64%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 20,91</t>
+          <t>8,6; 20,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 15,75</t>
+          <t>4,64; 14,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,66</t>
+          <t>2,36; 10,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 9,66</t>
+          <t>2,37; 12,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,96; 25,88</t>
+          <t>19,58; 32,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 15,78</t>
+          <t>7,57; 17,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 12,61</t>
+          <t>7,29; 17,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,85</t>
+          <t>4,45; 12,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 22,14</t>
+          <t>15,44; 24,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 13,29</t>
+          <t>7,03; 14,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,12</t>
+          <t>5,89; 12,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 9,11</t>
+          <t>4,39; 10,19</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,14; 22,41</t>
+          <t>6,89; 18,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,56</t>
+          <t>1,3; 8,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 11,35</t>
+          <t>2,21; 9,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 10,12</t>
+          <t>2,75; 15,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,49; 27,02</t>
+          <t>16,77; 29,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 15,07</t>
+          <t>4,36; 13,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 13,45</t>
+          <t>4,69; 13,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 13,63</t>
+          <t>4,39; 13,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,03; 22,73</t>
+          <t>14,04; 23,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 11,0</t>
+          <t>3,85; 9,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 10,75</t>
+          <t>4,54; 10,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,7</t>
+          <t>4,71; 11,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1145,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 19,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,86; 24,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 12,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 20,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,68%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24,02%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,29%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,74%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,66%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,0; 16,79</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 9,49</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 7,7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 9,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20,37; 28,84</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 12,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 13,55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 11,38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,03; 21,98</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 10,09</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 9,9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 8,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
@@ -1216,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha alimentado peor respecto al último mes (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10900</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6110</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2165</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>27876</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8037</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10707</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10604</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38776</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14147</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12873</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10604</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3580; 24311</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19390</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10614</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14012; 42464</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2245; 22150</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4157; 22260</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3373; 27508</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22763; 61494</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5399; 32378</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5138; 26048</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3238; 32430</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50057</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36293</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20082</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23374</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>99492</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>54236</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28068</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>149549</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>90529</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>65760</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>51442</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31489; 74651</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19923; 61790</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8886; 39862</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9484; 48020</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>76505; 125921</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>35144; 83032</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27494; 66140</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16690; 45170</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>116853; 183022</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>62850; 129315</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>44351; 93170</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34007; 78908</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34813</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11843</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14720</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18141</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>81104</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>33958</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29378</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26360</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>115917</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>45802</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>44098</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44501</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19707; 52745</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4330; 27069</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6233; 27934</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7583; 42494</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>60298; 106578</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18660; 57224</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16162; 48018</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14386; 42692</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>90637; 150009</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>29322; 68676</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28479; 64106</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>28415; 67499</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>95770</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>54246</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>36968</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>41515</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>208472</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>96232</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>85763</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>65031</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>304242</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>150478</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>122731</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>106546</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>67958; 126815</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>33956; 84569</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20868; 58827</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22752; 71526</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>176807; 250364</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>70272; 129151</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>61682; 113497</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>45199; 93872</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>260243; 356771</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>112581; 194413</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>91803; 158580</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>77776; 141276</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>